--- a/biology/Botanique/Olea_schliebenii/Olea_schliebenii.xlsx
+++ b/biology/Botanique/Olea_schliebenii/Olea_schliebenii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Olea schliebenii Knobl. est un taxon d'olivier appartenant au genre Olea. Il a été reconnu dans la révision du genre Olea publiée en 2002 par P.S. Green. C'est une espèce endémique de Tanzanie
 </t>
@@ -513,13 +525,52 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Appareil végétatif
-C'est un arbre pouvant atteindre 7 m de haut.
+          <t>Appareil végétatif</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>C'est un arbre pouvant atteindre 7 m de haut.
 Jeunes pousses de section  légèrement quadrangulaire, parsemés de lenticelles.
 Feuilles glabres, coriaces, avec des pétioles de 4 à 6 mm de long, le limbe est elliptique, de 2,5 à 5 cm de long et 2 à 4 cm de large, la base obtuse, l'apex arrondi à obtus, l'extrémité brièvement cuspidée.
-Nervures : 4 à 5 nervures primaires à peine visibles de part et d'autre de la nervure médiane ; la nervuration est sombre.
-Appareil reproducteur
-Inflorescences : terminales, glabres, denses, pédicelles de 0 à 0,5 mm de long.
+Nervures : 4 à 5 nervures primaires à peine visibles de part et d'autre de la nervure médiane ; la nervuration est sombre.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Olea_schliebenii</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Olea_schliebenii</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Description botanique</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Appareil reproducteur</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Inflorescences : terminales, glabres, denses, pédicelles de 0 à 0,5 mm de long.
 Calice : cupulé, 0,5 à 0,75 mm de long, lobes largement triangulaires.
 Corolle : blanche, tube de 0,5 mm de long, lobes de 1,5 à 2 mm de long.
 Étamines : anthères ellipsoïdes, de 1,5 mm de long, filets de 0,5 mm de long.
@@ -528,31 +579,33 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>Olea_schliebenii</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Olea_schliebenii</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>Localisation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Tanzanie :
 Morogoro distr.,
@@ -564,31 +617,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Olea_schliebenii</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Olea_schliebenii</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Sources</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
